--- a/model/SFC/CV/Set_Speed/Set_Speed[CV600].xlsx
+++ b/model/SFC/CV/Set_Speed/Set_Speed[CV600].xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_7B0B1ABF61444ADA89C8BF6D03887B8F4CA65210" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6651AFC-DE61-4C8C-9595-1A6D36CDF367}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="11_7B0B1ABF61444ADA89C8BF6D03887B8F4CA65210" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F251FD0D-6139-49D5-9FA5-C1F47AB122B9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="158">
   <si>
     <t>test</t>
   </si>
@@ -268,244 +268,241 @@
     <t>[Cal]math.floor(Vehicle.CV.Set_Speed.Input_EngineCcSetSpeed + SFC.Extension.Param.Par_CCSetSpeedKmTolerance)</t>
   </si>
   <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>SFC.Extension.Param.Par_CCSetSpeedKmTolerance</t>
+  </si>
+  <si>
+    <t>Vehicle.CV.Set_Speed.Input_EngineCcSetSpeed</t>
+  </si>
+  <si>
+    <t>0~255</t>
+  </si>
+  <si>
+    <t>Input_EngineCcSetSpeed * kFactor_ConvKmToMi + Par_CCSetSpeedMileTolerance</t>
+  </si>
+  <si>
+    <t>Private_SetSpeedPosition_stat == CC_SET &amp;&amp; Input_EngineCcSetSpeed &lt;= 0xFF &amp;&amp; 0 &lt;= Input_EngineCcSetSpeed &amp;&amp; Inter_TripDistanceUnit == MILE</t>
+  </si>
+  <si>
+    <t>[Cal]math.floor(Vehicle.CV.Set_Speed.Input_EngineCcSetSpeed * 0.62135922330097) + SFC.Extension.Param.Par_CCSetSpeedMileTolerance</t>
+  </si>
+  <si>
+    <t>MILE</t>
+  </si>
+  <si>
+    <t>SFC.Extension.Param.Par_CCSetSpeedMileTolerance</t>
+  </si>
+  <si>
+    <t>Input_SmvSetSpeedValue</t>
+  </si>
+  <si>
+    <t>Private_SetSpeedPosition_stat == SCC_SET &amp;&amp; Input_SmvSetSpeedValue &lt;= 0xFF &amp;&amp; 0 &lt;= Input_SmvSetSpeedValue</t>
+  </si>
+  <si>
+    <t>[Cal]Vehicle.CV.Set_Speed.Input_SmvSetSpeedValue</t>
+  </si>
+  <si>
+    <t>Vehicle.CV.Set_Speed.Input_SmvSetSpeedValue</t>
+  </si>
+  <si>
+    <t>Input_SRSSetSpeedValue + Par_SRSSetSpeedKmTolerance</t>
+  </si>
+  <si>
+    <t>Private_SetSpeedPosition_stat == SRS_SET &amp;&amp; Input_SRSSetSpeedValue &lt;= 0xFF &amp;&amp; 0 &lt;= Input_SRSSetSpeedValue &amp;&amp; Inter_TripDistanceUnit == KM</t>
+  </si>
+  <si>
+    <t>[Cal]math.floor(Vehicle.CV.Set_Speed.Input_SRSSetSpeedValue + SFC.Extension.Param.Par_SRSSetSpeedKmTolerance)</t>
+  </si>
+  <si>
+    <t>SFC.Extension.Param.Par_SRSSetSpeedKmTolerance</t>
+  </si>
+  <si>
+    <t>Vehicle.CV.Set_Speed.Input_SRSSetSpeedValue</t>
+  </si>
+  <si>
+    <t>Input_SRSSetSpeedValue * kFactor_ConvKmToMi + Par_SRSSetSpeedMileTolerance</t>
+  </si>
+  <si>
+    <t>Private_SetSpeedPosition_stat == SRS_SET &amp;&amp; Input_SRSSetSpeedValue &lt;= 0xFF &amp;&amp; 0 &lt;= Input_SRSSetSpeedValue &amp;&amp; Inter_TripDistanceUnit == MILE</t>
+  </si>
+  <si>
+    <t>[Cal]math.floor((Vehicle.CV.Set_Speed.Input_SRSSetSpeedValue * 0.62135922330097) + SFC.Extension.Param.Par_SRSSetSpeedMileTolerance)</t>
+  </si>
+  <si>
+    <t>SFC.Extension.Param.Par_SRSSetSpeedMileTolerance</t>
+  </si>
+  <si>
+    <t>Input_BremsomatSetSpeedValue + SFC.Extension.Param.Par_BremsomatSetSpeedKmTolerance</t>
+  </si>
+  <si>
+    <t>Private_SetSpeedPosition_stat == BREMSOMAT_SET &amp;&amp; Input_BremsomatSetSpeedValue &lt;= 0xFF &amp;&amp; 0 &lt;= Input_BremsomatSetSpeedValue &amp;&amp; Inter_TripDistanceUnit == KM</t>
+  </si>
+  <si>
+    <t>[Cal]math.floor(Vehicle.CV.Set_Speed.Input_BremsomatSetSpeedValue + SFC.Extension.Param.Par_BremsomatSetSpeedKmTolerance)</t>
+  </si>
+  <si>
+    <t>SFC.Extension.Param.Par_BremsomatSetSpeedKmTolerance</t>
+  </si>
+  <si>
+    <t>Vehicle.CV.Set_Speed.Input_BremsomatSetSpeedValue</t>
+  </si>
+  <si>
+    <t>Input_BremsomatSetSpeedValue * kFactor_ConvKmToMi + Par_BremsomatSetSpeedMileTolerance</t>
+  </si>
+  <si>
+    <t>Private_SetSpeedPosition_stat == BREMSOMAT_SET &amp;&amp; Input_BremsomatSetSpeedValue &lt;= 0xFF &amp;&amp; 0 &lt;= Input_BremsomatSetSpeedValue &amp;&amp; Inter_TripDistanceUnit == MILE</t>
+  </si>
+  <si>
+    <t>[Cal]math.floor((Vehicle.CV.Set_Speed.Input_BremsomatSetSpeedValue * 0.62135922330097) + SFC.Extension.Param.Par_BremsomatSetSpeedMileTolerance)</t>
+  </si>
+  <si>
+    <t>SFC.Extension.Param.Par_BremsomatSetSpeedMileTolerance</t>
+  </si>
+  <si>
+    <t>0xFFF</t>
+  </si>
+  <si>
+    <t>IMG_SetSpeedColor_stat</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>SFC.Set_Speed.Constant.SetSpeedColor.Stat</t>
+  </si>
+  <si>
+    <t>Input_SmvSetSpeedStatus==GREEN, WHITE</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>Input_EngineCcActive==OFF &amp;&amp; Input_SmvSetSpeedStatus!=GREEN, WHITE &amp;&amp; Input_RetarderSwitchStatus==STEP1</t>
+  </si>
+  <si>
+    <t>IMG_MinToleranceSpeed_Value</t>
+  </si>
+  <si>
+    <t>Input_MCCMinSpeedValue + Par_CCSetSpeedKmTolerance</t>
+  </si>
+  <si>
+    <t>Private_MinToleranceSpeed_stat == CC_MCC_ACTIVE &amp;&amp; Input_MCCMinSpeedValue &lt;= 0xFF &amp;&amp; 0 &lt;= Input_MCCMinSpeedValue &amp;&amp; Inter_TripDistanceUnit == KM</t>
+  </si>
+  <si>
+    <t>[Sheet]Private_MinToleranceSpeed_stat</t>
+  </si>
+  <si>
+    <t>CC_MCC_ACTIVE, SCC_MCC_ACTIVE</t>
+  </si>
+  <si>
+    <t>SFC.Set_Speed.Constant.MinToleranceSpeed.Value</t>
+  </si>
+  <si>
+    <t>[Cal]math.floor(Vehicle.CV.Set_Speed.Input_MCCMinSpeedValue + SFC.Extension.Param.Par_CCSetSpeedKmTolerance)</t>
+  </si>
+  <si>
+    <t>Vehicle.CV.Set_Speed.Input_MCCMinSpeedValue</t>
+  </si>
+  <si>
+    <t>Input_MCCMinSpeedValue * kFactor_ConvKmToMi + Par_CCSetSpeedMileTolerance</t>
+  </si>
+  <si>
+    <t>Private_MinToleranceSpeed_stat == CC_MCC_ACTIVE &amp;&amp; Input_MCCMinSpeedValue &lt;= 0xFF &amp;&amp; 0 &lt;= Input_MCCMinSpeedValue &amp;&amp; Inter_TripDistanceUnit == MILE</t>
+  </si>
+  <si>
+    <t>[Cal]math.floor((Vehicle.CV.Set_Speed.Input_MCCMinSpeedValue * 0.62135922330097) + SFC.Extension.Param.Par_CCSetSpeedMileTolerance)</t>
+  </si>
+  <si>
+    <t>Private_MinToleranceSpeed_stat == CC_DHC_ACTIVE &amp;&amp; Input_EngineCcSetSpeed &lt;= 0xFF &amp;&amp; 0 &lt;= Input_EngineCcSetSpeed &amp;&amp; Inter_TripDistanceUnit == KM</t>
+  </si>
+  <si>
+    <t>Private_MinToleranceSpeed_stat == CC_DHC_ACTIVE &amp;&amp; Input_EngineCcSetSpeed &lt;= 0xFF &amp;&amp; 0 &lt;= Input_EngineCcSetSpeed &amp;&amp; Inter_TripDistanceUnit == MILE</t>
+  </si>
+  <si>
+    <t>[Cal]math.floor((Vehicle.CV.Set_Speed.Input_EngineCcSetSpeed * 0.62135922330097) + SFC.Extension.Param.Par_CCSetSpeedMileTolerance)</t>
+  </si>
+  <si>
+    <t>Private_MinToleranceSpeed_stat == SCC_DHC_ACTIVE &amp;&amp; Input_SmvSetSpeedValue &lt;= 0xFF &amp;&amp; 0 &lt;= Input_SmvSetSpeedValue</t>
+  </si>
+  <si>
+    <t>IMG_MaxToleranceSpeed_Value</t>
+  </si>
+  <si>
+    <t>Private_MaxToleranceSpeed_stat == CC_MCC_ACTIVE &amp;&amp; Input_EngineCcSetSpeed &lt;= 0xFF &amp;&amp; 0 &lt;= Input_EngineCcSetSpeed &amp;&amp; Inter_TripDistanceUnit == KM</t>
+  </si>
+  <si>
+    <t>[Sheet]Private_MaxToleranceSpeed_stat</t>
+  </si>
+  <si>
+    <t>SFC.Set_Speed.Constant.MaxToleranceSpeed.Value</t>
+  </si>
+  <si>
+    <t>Private_MaxToleranceSpeed_stat == CC_MCC_ACTIVE &amp;&amp; Input_EngineCcSetSpeed &lt;= 0xFF &amp;&amp; 0 &lt;= Input_EngineCcSetSpeed &amp;&amp; Inter_TripDistanceUnit == MILE</t>
+  </si>
+  <si>
+    <t>Input_EngineCcSetSpeed + Par_CCSetSpeedMileTolerance + Input_DHCToleranceValue</t>
+  </si>
+  <si>
+    <t>Private_MaxToleranceSpeed_stat == CC_DHC_ACTIVE &amp;&amp; Input_EngineCcSetSpeed &lt;= 0xFF &amp;&amp; 0 &lt;= Input_DHCToleranceValue &amp;&amp; Inter_TripDistanceUnit == KM &amp;&amp; 0 &lt;= Input_EngineCcSetSpeed &amp;&amp; Input_DHCToleranceValue &lt;= 0x1F (Input_DHCToleranceValue==0)</t>
+  </si>
+  <si>
+    <t>[Cal]math.floor(Vehicle.CV.Set_Speed.Input_DHCToleranceValue+Vehicle.CV.Set_Speed.Input_EngineCcSetSpeed+SFC.Extension.Param.Par_CCSetSpeedKmTolerance)</t>
+  </si>
+  <si>
+    <t>Vehicle.CV.Set_Speed.Input_DHCToleranceValue</t>
+  </si>
+  <si>
+    <t>0~31</t>
+  </si>
+  <si>
+    <t>Input_EngineCcSetSpeed * kFactor_ConvKmToMi + Par_CCSetSpeedMileTolerance + Input_DHCToleranceValue</t>
+  </si>
+  <si>
+    <t>Private_MaxToleranceSpeed_stat == CC_DHC_ACTIVE &amp;&amp; Input_EngineCcSetSpeed &lt;= 0xFF &amp;&amp; 0 &lt;= Input_EngineCcSetSpeed &amp;&amp; Input_DHCToleranceValue &lt;= 0x1F &amp;&amp; 0 &lt;= Input_DHCToleranceValue &amp;&amp; Inter_TripDistanceUnit == MILE (Input_DHCToleranceValue==0)</t>
+  </si>
+  <si>
+    <t>[Cal]math.floor((Vehicle.CV.Set_Speed.Input_EngineCcSetSpeed * 0.62135922330097) + SFC.Extension.Param.Par_CCSetSpeedMileTolerance +Vehicle.CV.Set_Speed.Input_DHCToleranceValue)</t>
+  </si>
+  <si>
+    <t>Private_MaxToleranceSpeed_stat == SCC_MCC_ACTIVE &amp;&amp; Input_SmvSetSpeedValue &lt;= 0xFF &amp;&amp; 0 &lt;= Input_SmvSetSpeedValue</t>
+  </si>
+  <si>
+    <t>Input_SmvSetSpeedValue + Input_DHCToleranceValue</t>
+  </si>
+  <si>
+    <t>Private_MaxToleranceSpeed_stat == SCC_DHC_ACTIVE &amp;&amp; Input_SmvSetSpeedValue &lt;= 0xFF &amp;&amp; 0 &lt;= Input_SmvSetSpeedValue &amp;&amp; Input_DHCToleranceValue &lt;= 0x1F &amp;&amp; 0 &lt;= Input_DHCToleranceValue (Input_DHCToleranceValue==0)</t>
+  </si>
+  <si>
+    <t>[Cal]math.floor(Vehicle.CV.Set_Speed.Input_SmvSetSpeedValue+Vehicle.CV.Set_Speed.Input_DHCToleranceValue)</t>
+  </si>
+  <si>
+    <t>Others (Input_DHCToleranceValue &gt; 0x1F)</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>ConfigName</t>
+  </si>
+  <si>
+    <t>AndGroup</t>
+  </si>
+  <si>
+    <t>InputSignal</t>
+  </si>
+  <si>
+    <t>InputData</t>
+  </si>
+  <si>
+    <t>DependentName</t>
+  </si>
+  <si>
     <t>SFC.Extension.Settings.Inter_TripDistanceUnit</t>
   </si>
   <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>SFC.Extension.Param.Par_CCSetSpeedKmTolerance</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Vehicle.CV.Set_Speed.Input_EngineCcSetSpeed</t>
-  </si>
-  <si>
-    <t>0~255</t>
-  </si>
-  <si>
-    <t>Input_EngineCcSetSpeed * kFactor_ConvKmToMi + Par_CCSetSpeedMileTolerance</t>
-  </si>
-  <si>
-    <t>Private_SetSpeedPosition_stat == CC_SET &amp;&amp; Input_EngineCcSetSpeed &lt;= 0xFF &amp;&amp; 0 &lt;= Input_EngineCcSetSpeed &amp;&amp; Inter_TripDistanceUnit == MILE</t>
-  </si>
-  <si>
-    <t>[Cal]math.floor(Vehicle.CV.Set_Speed.Input_EngineCcSetSpeed * 0.62135922330097) + SFC.Extension.Param.Par_CCSetSpeedMileTolerance</t>
-  </si>
-  <si>
-    <t>MILE</t>
-  </si>
-  <si>
-    <t>SFC.Extension.Param.Par_CCSetSpeedMileTolerance</t>
-  </si>
-  <si>
-    <t>Input_SmvSetSpeedValue</t>
-  </si>
-  <si>
-    <t>Private_SetSpeedPosition_stat == SCC_SET &amp;&amp; Input_SmvSetSpeedValue &lt;= 0xFF &amp;&amp; 0 &lt;= Input_SmvSetSpeedValue</t>
-  </si>
-  <si>
-    <t>[Cal]Vehicle.CV.Set_Speed.Input_SmvSetSpeedValue</t>
-  </si>
-  <si>
-    <t>Vehicle.CV.Set_Speed.Input_SmvSetSpeedValue</t>
-  </si>
-  <si>
-    <t>Input_SRSSetSpeedValue + Par_SRSSetSpeedKmTolerance</t>
-  </si>
-  <si>
-    <t>Private_SetSpeedPosition_stat == SRS_SET &amp;&amp; Input_SRSSetSpeedValue &lt;= 0xFF &amp;&amp; 0 &lt;= Input_SRSSetSpeedValue &amp;&amp; Inter_TripDistanceUnit == KM</t>
-  </si>
-  <si>
-    <t>[Cal]math.floor(Vehicle.CV.Set_Speed.Input_SRSSetSpeedValue + SFC.Extension.Param.Par_SRSSetSpeedKmTolerance)</t>
-  </si>
-  <si>
-    <t>SFC.Extension.Param.Par_SRSSetSpeedKmTolerance</t>
-  </si>
-  <si>
-    <t>Vehicle.CV.Set_Speed.Input_SRSSetSpeedValue</t>
-  </si>
-  <si>
-    <t>Input_SRSSetSpeedValue * kFactor_ConvKmToMi + Par_SRSSetSpeedMileTolerance</t>
-  </si>
-  <si>
-    <t>Private_SetSpeedPosition_stat == SRS_SET &amp;&amp; Input_SRSSetSpeedValue &lt;= 0xFF &amp;&amp; 0 &lt;= Input_SRSSetSpeedValue &amp;&amp; Inter_TripDistanceUnit == MILE</t>
-  </si>
-  <si>
-    <t>[Cal]math.floor((Vehicle.CV.Set_Speed.Input_SRSSetSpeedValue * 0.62135922330097) + SFC.Extension.Param.Par_SRSSetSpeedMileTolerance)</t>
-  </si>
-  <si>
-    <t>SFC.Extension.Param.Par_SRSSetSpeedMileTolerance</t>
-  </si>
-  <si>
-    <t>Input_BremsomatSetSpeedValue + SFC.Extension.Param.Par_BremsomatSetSpeedKmTolerance</t>
-  </si>
-  <si>
-    <t>Private_SetSpeedPosition_stat == BREMSOMAT_SET &amp;&amp; Input_BremsomatSetSpeedValue &lt;= 0xFF &amp;&amp; 0 &lt;= Input_BremsomatSetSpeedValue &amp;&amp; Inter_TripDistanceUnit == KM</t>
-  </si>
-  <si>
-    <t>[Cal]math.floor(Vehicle.CV.Set_Speed.Input_BremsomatSetSpeedValue + SFC.Extension.Param.Par_BremsomatSetSpeedKmTolerance)</t>
-  </si>
-  <si>
-    <t>SFC.Extension.Param.Par_BremsomatSetSpeedKmTolerance</t>
-  </si>
-  <si>
-    <t>Vehicle.CV.Set_Speed.Input_BremsomatSetSpeedValue</t>
-  </si>
-  <si>
-    <t>Input_BremsomatSetSpeedValue * kFactor_ConvKmToMi + Par_BremsomatSetSpeedMileTolerance</t>
-  </si>
-  <si>
-    <t>Private_SetSpeedPosition_stat == BREMSOMAT_SET &amp;&amp; Input_BremsomatSetSpeedValue &lt;= 0xFF &amp;&amp; 0 &lt;= Input_BremsomatSetSpeedValue &amp;&amp; Inter_TripDistanceUnit == MILE</t>
-  </si>
-  <si>
-    <t>[Cal]math.floor((Vehicle.CV.Set_Speed.Input_BremsomatSetSpeedValue * 0.62135922330097) + SFC.Extension.Param.Par_BremsomatSetSpeedMileTolerance)</t>
-  </si>
-  <si>
-    <t>SFC.Extension.Param.Par_BremsomatSetSpeedMileTolerance</t>
-  </si>
-  <si>
-    <t>0xFFF</t>
-  </si>
-  <si>
-    <t>IMG_SetSpeedColor_stat</t>
-  </si>
-  <si>
-    <t>GREEN</t>
-  </si>
-  <si>
-    <t>SFC.Set_Speed.Constant.SetSpeedColor.Stat</t>
-  </si>
-  <si>
-    <t>Input_SmvSetSpeedStatus==GREEN, WHITE</t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
-    <t>Input_EngineCcActive==OFF &amp;&amp; Input_SmvSetSpeedStatus!=GREEN, WHITE &amp;&amp; Input_RetarderSwitchStatus==STEP1</t>
-  </si>
-  <si>
-    <t>IMG_MinToleranceSpeed_Value</t>
-  </si>
-  <si>
-    <t>Input_MCCMinSpeedValue + Par_CCSetSpeedKmTolerance</t>
-  </si>
-  <si>
-    <t>Private_MinToleranceSpeed_stat == CC_MCC_ACTIVE &amp;&amp; Input_MCCMinSpeedValue &lt;= 0xFF &amp;&amp; 0 &lt;= Input_MCCMinSpeedValue &amp;&amp; Inter_TripDistanceUnit == KM</t>
-  </si>
-  <si>
-    <t>[Sheet]Private_MinToleranceSpeed_stat</t>
-  </si>
-  <si>
-    <t>CC_MCC_ACTIVE, SCC_MCC_ACTIVE</t>
-  </si>
-  <si>
-    <t>SFC.Set_Speed.Constant.MinToleranceSpeed.Value</t>
-  </si>
-  <si>
-    <t>[Cal]math.floor(Vehicle.CV.Set_Speed.Input_MCCMinSpeedValue + SFC.Extension.Param.Par_CCSetSpeedKmTolerance)</t>
-  </si>
-  <si>
-    <t>1, 2</t>
-  </si>
-  <si>
-    <t>Vehicle.CV.Set_Speed.Input_MCCMinSpeedValue</t>
-  </si>
-  <si>
-    <t>Input_MCCMinSpeedValue * kFactor_ConvKmToMi + Par_CCSetSpeedMileTolerance</t>
-  </si>
-  <si>
-    <t>Private_MinToleranceSpeed_stat == CC_MCC_ACTIVE &amp;&amp; Input_MCCMinSpeedValue &lt;= 0xFF &amp;&amp; 0 &lt;= Input_MCCMinSpeedValue &amp;&amp; Inter_TripDistanceUnit == MILE</t>
-  </si>
-  <si>
-    <t>[Cal]math.floor((Vehicle.CV.Set_Speed.Input_MCCMinSpeedValue * 0.62135922330097) + SFC.Extension.Param.Par_CCSetSpeedMileTolerance)</t>
-  </si>
-  <si>
-    <t>Private_MinToleranceSpeed_stat == CC_DHC_ACTIVE &amp;&amp; Input_EngineCcSetSpeed &lt;= 0xFF &amp;&amp; 0 &lt;= Input_EngineCcSetSpeed &amp;&amp; Inter_TripDistanceUnit == KM</t>
-  </si>
-  <si>
-    <t>Private_MinToleranceSpeed_stat == CC_DHC_ACTIVE &amp;&amp; Input_EngineCcSetSpeed &lt;= 0xFF &amp;&amp; 0 &lt;= Input_EngineCcSetSpeed &amp;&amp; Inter_TripDistanceUnit == MILE</t>
-  </si>
-  <si>
-    <t>[Cal]math.floor((Vehicle.CV.Set_Speed.Input_EngineCcSetSpeed * 0.62135922330097) + SFC.Extension.Param.Par_CCSetSpeedMileTolerance)</t>
-  </si>
-  <si>
-    <t>Private_MinToleranceSpeed_stat == SCC_DHC_ACTIVE &amp;&amp; Input_SmvSetSpeedValue &lt;= 0xFF &amp;&amp; 0 &lt;= Input_SmvSetSpeedValue</t>
-  </si>
-  <si>
-    <t>IMG_MaxToleranceSpeed_Value</t>
-  </si>
-  <si>
-    <t>Private_MaxToleranceSpeed_stat == CC_MCC_ACTIVE &amp;&amp; Input_EngineCcSetSpeed &lt;= 0xFF &amp;&amp; 0 &lt;= Input_EngineCcSetSpeed &amp;&amp; Inter_TripDistanceUnit == KM</t>
-  </si>
-  <si>
-    <t>[Sheet]Private_MaxToleranceSpeed_stat</t>
-  </si>
-  <si>
-    <t>SFC.Set_Speed.Constant.MaxToleranceSpeed.Value</t>
-  </si>
-  <si>
-    <t>Private_MaxToleranceSpeed_stat == CC_MCC_ACTIVE &amp;&amp; Input_EngineCcSetSpeed &lt;= 0xFF &amp;&amp; 0 &lt;= Input_EngineCcSetSpeed &amp;&amp; Inter_TripDistanceUnit == MILE</t>
-  </si>
-  <si>
-    <t>Input_EngineCcSetSpeed + Par_CCSetSpeedMileTolerance + Input_DHCToleranceValue</t>
-  </si>
-  <si>
-    <t>Private_MaxToleranceSpeed_stat == CC_DHC_ACTIVE &amp;&amp; Input_EngineCcSetSpeed &lt;= 0xFF &amp;&amp; 0 &lt;= Input_DHCToleranceValue &amp;&amp; Inter_TripDistanceUnit == KM &amp;&amp; 0 &lt;= Input_EngineCcSetSpeed &amp;&amp; Input_DHCToleranceValue &lt;= 0x1F (Input_DHCToleranceValue==0)</t>
-  </si>
-  <si>
-    <t>[Cal]math.floor(Vehicle.CV.Set_Speed.Input_DHCToleranceValue+Vehicle.CV.Set_Speed.Input_EngineCcSetSpeed+SFC.Extension.Param.Par_CCSetSpeedKmTolerance)</t>
-  </si>
-  <si>
-    <t>Vehicle.CV.Set_Speed.Input_DHCToleranceValue</t>
-  </si>
-  <si>
-    <t>0~31</t>
-  </si>
-  <si>
-    <t>Input_EngineCcSetSpeed * kFactor_ConvKmToMi + Par_CCSetSpeedMileTolerance + Input_DHCToleranceValue</t>
-  </si>
-  <si>
-    <t>Private_MaxToleranceSpeed_stat == CC_DHC_ACTIVE &amp;&amp; Input_EngineCcSetSpeed &lt;= 0xFF &amp;&amp; 0 &lt;= Input_EngineCcSetSpeed &amp;&amp; Input_DHCToleranceValue &lt;= 0x1F &amp;&amp; 0 &lt;= Input_DHCToleranceValue &amp;&amp; Inter_TripDistanceUnit == MILE (Input_DHCToleranceValue==0)</t>
-  </si>
-  <si>
-    <t>[Cal]math.floor((Vehicle.CV.Set_Speed.Input_EngineCcSetSpeed * 0.62135922330097) + SFC.Extension.Param.Par_CCSetSpeedMileTolerance +Vehicle.CV.Set_Speed.Input_DHCToleranceValue)</t>
-  </si>
-  <si>
-    <t>Private_MaxToleranceSpeed_stat == SCC_MCC_ACTIVE &amp;&amp; Input_SmvSetSpeedValue &lt;= 0xFF &amp;&amp; 0 &lt;= Input_SmvSetSpeedValue</t>
-  </si>
-  <si>
-    <t>Input_SmvSetSpeedValue + Input_DHCToleranceValue</t>
-  </si>
-  <si>
-    <t>Private_MaxToleranceSpeed_stat == SCC_DHC_ACTIVE &amp;&amp; Input_SmvSetSpeedValue &lt;= 0xFF &amp;&amp; 0 &lt;= Input_SmvSetSpeedValue &amp;&amp; Input_DHCToleranceValue &lt;= 0x1F &amp;&amp; 0 &lt;= Input_DHCToleranceValue (Input_DHCToleranceValue==0)</t>
-  </si>
-  <si>
-    <t>[Cal]math.floor(Vehicle.CV.Set_Speed.Input_SmvSetSpeedValue+Vehicle.CV.Set_Speed.Input_DHCToleranceValue)</t>
-  </si>
-  <si>
-    <t>Others (Input_DHCToleranceValue &gt; 0x1F)</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>ConfigName</t>
-  </si>
-  <si>
-    <t>AndGroup</t>
-  </si>
-  <si>
-    <t>InputSignal</t>
-  </si>
-  <si>
-    <t>InputData</t>
-  </si>
-  <si>
-    <t>DependentName</t>
+    <t>4, 5</t>
   </si>
 </sst>
 </file>
@@ -526,12 +523,18 @@
       <name val="맑은 고딕"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -561,13 +564,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -928,13 +933,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -946,9 +951,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.0625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.8515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.47265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.38671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.68359375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.71875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="128.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.96484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.859375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.40625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -989,21 +1010,21 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H2" t="s">
@@ -1023,13 +1044,13 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" t="s">
         <v>31</v>
       </c>
@@ -1038,13 +1059,13 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
       <c r="H4" t="s">
         <v>33</v>
       </c>
@@ -1053,15 +1074,15 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H5" t="s">
@@ -1081,13 +1102,13 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="H6" t="s">
         <v>33</v>
       </c>
@@ -1096,15 +1117,15 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H7" t="s">
@@ -1124,13 +1145,13 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>31</v>
       </c>
@@ -1139,13 +1160,13 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
       <c r="H9" t="s">
         <v>43</v>
       </c>
@@ -1154,13 +1175,13 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="H10" t="s">
         <v>33</v>
       </c>
@@ -1169,15 +1190,15 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H11" t="s">
@@ -1197,13 +1218,13 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" t="s">
         <v>31</v>
       </c>
@@ -1212,13 +1233,13 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" t="s">
         <v>43</v>
       </c>
@@ -1227,13 +1248,13 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" t="s">
         <v>47</v>
       </c>
@@ -1242,13 +1263,13 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15" t="s">
         <v>33</v>
       </c>
@@ -1257,11 +1278,11 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" t="s">
         <v>41</v>
       </c>
@@ -1279,21 +1300,21 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="3" t="s">
         <v>53</v>
       </c>
       <c r="H17" t="s">
@@ -1313,13 +1334,13 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="H18" t="s">
         <v>31</v>
       </c>
@@ -1328,13 +1349,13 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
       <c r="H19" t="s">
         <v>55</v>
       </c>
@@ -1343,13 +1364,13 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
       <c r="H20" t="s">
         <v>33</v>
       </c>
@@ -1358,15 +1379,15 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H21" t="s">
@@ -1386,13 +1407,13 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
       <c r="H22" t="s">
         <v>31</v>
       </c>
@@ -1401,13 +1422,13 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
       <c r="H23" t="s">
         <v>55</v>
       </c>
@@ -1416,13 +1437,13 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
       <c r="H24" t="s">
         <v>58</v>
       </c>
@@ -1431,13 +1452,13 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
       <c r="H25" t="s">
         <v>33</v>
       </c>
@@ -1446,15 +1467,15 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="3" t="s">
         <v>61</v>
       </c>
       <c r="H26" t="s">
@@ -1474,13 +1495,13 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
       <c r="H27" t="s">
         <v>55</v>
       </c>
@@ -1489,13 +1510,13 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
       <c r="H28" t="s">
         <v>33</v>
       </c>
@@ -1504,15 +1525,15 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H29" t="s">
@@ -1532,13 +1553,13 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
       <c r="H30" t="s">
         <v>55</v>
       </c>
@@ -1547,13 +1568,13 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
       <c r="H31" t="s">
         <v>58</v>
       </c>
@@ -1562,13 +1583,13 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
       <c r="H32" t="s">
         <v>33</v>
       </c>
@@ -1577,11 +1598,11 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
       <c r="F33" t="s">
         <v>41</v>
       </c>
@@ -1599,21 +1620,21 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H34" t="s">
@@ -1633,13 +1654,13 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
       <c r="H35" t="s">
         <v>31</v>
       </c>
@@ -1648,13 +1669,13 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
       <c r="H36" t="s">
         <v>55</v>
       </c>
@@ -1663,13 +1684,13 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
       <c r="H37" t="s">
         <v>58</v>
       </c>
@@ -1678,13 +1699,13 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
       <c r="H38" t="s">
         <v>33</v>
       </c>
@@ -1693,15 +1714,15 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="3" t="s">
         <v>68</v>
       </c>
       <c r="H39" t="s">
@@ -1721,13 +1742,13 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
       <c r="H40" t="s">
         <v>31</v>
       </c>
@@ -1736,13 +1757,13 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
       <c r="H41" t="s">
         <v>58</v>
       </c>
@@ -1751,13 +1772,13 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
       <c r="H42" t="s">
         <v>33</v>
       </c>
@@ -1766,15 +1787,15 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="3" t="s">
         <v>61</v>
       </c>
       <c r="H43" t="s">
@@ -1794,13 +1815,13 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
       <c r="H44" t="s">
         <v>55</v>
       </c>
@@ -1809,13 +1830,13 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
       <c r="H45" t="s">
         <v>58</v>
       </c>
@@ -1824,13 +1845,13 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
       <c r="H46" t="s">
         <v>33</v>
       </c>
@@ -1839,15 +1860,15 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2" t="s">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="3" t="s">
         <v>69</v>
       </c>
       <c r="H47" t="s">
@@ -1867,13 +1888,13 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
       <c r="H48" t="s">
         <v>58</v>
       </c>
@@ -1882,13 +1903,13 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
       <c r="H49" t="s">
         <v>33</v>
       </c>
@@ -1897,11 +1918,11 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
       <c r="F50" t="s">
         <v>41</v>
       </c>
@@ -1920,6 +1941,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="A34:A50"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="C34:C50"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="D17:D33"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B17:B33"/>
+    <mergeCell ref="E34:E50"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="D34:D50"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="D2:D16"/>
+    <mergeCell ref="E17:E33"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="F11:F15"/>
     <mergeCell ref="G2:G4"/>
@@ -1936,29 +1980,6 @@
     <mergeCell ref="F39:F42"/>
     <mergeCell ref="F21:F25"/>
     <mergeCell ref="F2:F4"/>
-    <mergeCell ref="B2:B16"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="D17:D33"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B17:B33"/>
-    <mergeCell ref="E34:E50"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="D34:D50"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="D2:D16"/>
-    <mergeCell ref="E17:E33"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="A34:A50"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="C34:C50"/>
-    <mergeCell ref="G17:G20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2019,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="G35" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2031,7 +2052,7 @@
     <col min="4" max="4" width="11.38671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.68359375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="95.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="155.48046875" customWidth="1"/>
+    <col min="7" max="7" width="88.87890625" customWidth="1"/>
     <col min="8" max="8" width="51.49609375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.1953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6953125" bestFit="1" customWidth="1"/>
@@ -2078,21 +2099,21 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H2" t="s">
@@ -2112,13 +2133,13 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" t="s">
         <v>33</v>
       </c>
@@ -2127,61 +2148,61 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
       <c r="H4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" t="s">
         <v>77</v>
       </c>
-      <c r="I4" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" t="s">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" t="s">
         <v>79</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I6" t="s">
+      <c r="G7" s="5" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="H7" t="s">
         <v>74</v>
@@ -2196,17 +2217,17 @@
         <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
       <c r="H8" t="s">
         <v>33</v>
       </c>
@@ -2215,61 +2236,61 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="I9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" t="s">
+      <c r="G12" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="I10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="H12" t="s">
         <v>74</v>
@@ -2284,17 +2305,17 @@
         <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" t="s">
         <v>33</v>
       </c>
@@ -2303,31 +2324,31 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="I14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="H15" t="s">
         <v>74</v>
@@ -2342,17 +2363,17 @@
         <v>22</v>
       </c>
       <c r="L15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
       <c r="H16" t="s">
         <v>33</v>
       </c>
@@ -2361,61 +2382,61 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="H17" t="s">
+        <v>154</v>
+      </c>
+      <c r="I17" t="s">
         <v>77</v>
       </c>
-      <c r="I17" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="H18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" t="s">
+      <c r="G20" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="I19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="H20" t="s">
         <v>74</v>
@@ -2430,17 +2451,17 @@
         <v>22</v>
       </c>
       <c r="L20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
       <c r="H21" t="s">
         <v>33</v>
       </c>
@@ -2449,61 +2470,61 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
       <c r="H22" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="I22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
       <c r="H23" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="I23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" t="s">
-        <v>96</v>
-      </c>
-      <c r="I24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="H25" t="s">
         <v>74</v>
@@ -2518,17 +2539,17 @@
         <v>22</v>
       </c>
       <c r="L25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
       <c r="H26" t="s">
         <v>33</v>
       </c>
@@ -2537,61 +2558,61 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
       <c r="H27" t="s">
+        <v>154</v>
+      </c>
+      <c r="I27" t="s">
         <v>77</v>
       </c>
-      <c r="I27" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
       <c r="H28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" t="s">
+      <c r="G30" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="I29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="H30" t="s">
         <v>74</v>
@@ -2606,17 +2627,17 @@
         <v>22</v>
       </c>
       <c r="L30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
       <c r="H31" t="s">
         <v>33</v>
       </c>
@@ -2625,58 +2646,58 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
       <c r="H32" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="I32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
       <c r="H33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I33">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
       <c r="H34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
       <c r="F35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G35" t="s">
         <v>49</v>
@@ -2688,25 +2709,25 @@
         <v>22</v>
       </c>
       <c r="L35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H36" t="s">
@@ -2716,7 +2737,7 @@
         <v>28</v>
       </c>
       <c r="J36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K36" t="s">
         <v>22</v>
@@ -2726,13 +2747,13 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
       <c r="H37" t="s">
         <v>33</v>
       </c>
@@ -2741,14 +2762,14 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2" t="s">
-        <v>114</v>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="H38" t="s">
         <v>31</v>
@@ -2758,13 +2779,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
       <c r="H39" t="s">
         <v>33</v>
       </c>
@@ -2773,15 +2794,15 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G40" s="2" t="s">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H40" t="s">
@@ -2791,7 +2812,7 @@
         <v>41</v>
       </c>
       <c r="J40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K40" t="s">
         <v>22</v>
@@ -2801,13 +2822,13 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
       <c r="H41" t="s">
         <v>31</v>
       </c>
@@ -2816,13 +2837,13 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
       <c r="H42" t="s">
         <v>43</v>
       </c>
@@ -2831,13 +2852,13 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
       <c r="H43" t="s">
         <v>33</v>
       </c>
@@ -2846,14 +2867,14 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2" t="s">
-        <v>116</v>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="H44" t="s">
         <v>27</v>
@@ -2863,13 +2884,13 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
       <c r="H45" t="s">
         <v>31</v>
       </c>
@@ -2878,13 +2899,13 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
       <c r="H46" t="s">
         <v>47</v>
       </c>
@@ -2893,13 +2914,13 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
       <c r="H47" t="s">
         <v>33</v>
       </c>
@@ -2908,11 +2929,11 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
       <c r="F48" t="s">
         <v>41</v>
       </c>
@@ -2920,7 +2941,7 @@
         <v>49</v>
       </c>
       <c r="J48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K48" t="s">
         <v>22</v>
@@ -2930,47 +2951,47 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="A49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2" t="s">
+      <c r="H49" t="s">
         <v>118</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="I49" t="s">
         <v>119</v>
       </c>
-      <c r="H49" t="s">
+      <c r="J49" t="s">
         <v>120</v>
       </c>
-      <c r="I49" t="s">
+      <c r="K49" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" t="s">
         <v>121</v>
       </c>
-      <c r="J49" t="s">
-        <v>122</v>
-      </c>
-      <c r="K49" t="s">
-        <v>22</v>
-      </c>
-      <c r="L49" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
       <c r="H50" t="s">
         <v>33</v>
       </c>
@@ -2979,86 +3000,86 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
       <c r="H51" t="s">
+        <v>154</v>
+      </c>
+      <c r="I51" t="s">
         <v>77</v>
       </c>
-      <c r="I51" t="s">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" t="s">
-        <v>79</v>
-      </c>
       <c r="I52" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" t="s">
+        <v>122</v>
+      </c>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" t="s">
+      <c r="H54" t="s">
+        <v>118</v>
+      </c>
+      <c r="I54" t="s">
+        <v>119</v>
+      </c>
+      <c r="J54" t="s">
+        <v>120</v>
+      </c>
+      <c r="K54" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" t="s">
         <v>125</v>
       </c>
-      <c r="I53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H54" t="s">
-        <v>120</v>
-      </c>
-      <c r="I54" t="s">
-        <v>121</v>
-      </c>
-      <c r="J54" t="s">
-        <v>122</v>
-      </c>
-      <c r="K54" t="s">
-        <v>22</v>
-      </c>
-      <c r="L54" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
       <c r="H55" t="s">
         <v>33</v>
       </c>
@@ -3067,70 +3088,70 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="I56" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
       <c r="H57" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I57">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
       <c r="H58" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2" t="s">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>129</v>
+      <c r="G59" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="H59" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I59" t="s">
         <v>56</v>
       </c>
       <c r="J59" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K59" t="s">
         <v>22</v>
@@ -3140,13 +3161,13 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
       <c r="H60" t="s">
         <v>33</v>
       </c>
@@ -3155,86 +3176,86 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
       <c r="H61" t="s">
+        <v>154</v>
+      </c>
+      <c r="I61" t="s">
         <v>77</v>
       </c>
-      <c r="I61" t="s">
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" t="s">
+      <c r="I62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" t="s">
         <v>79</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I63" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>130</v>
+      <c r="G64" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="H64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I64" t="s">
         <v>56</v>
       </c>
       <c r="J64" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K64" t="s">
         <v>22</v>
       </c>
       <c r="L64" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
       <c r="H65" t="s">
         <v>33</v>
       </c>
@@ -3243,86 +3264,86 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
       <c r="H66" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="I66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" t="s">
+        <v>85</v>
+      </c>
+      <c r="I67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" t="s">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" t="s">
-        <v>87</v>
-      </c>
-      <c r="I67">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-      <c r="I68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>132</v>
+      <c r="G69" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="H69" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I69" t="s">
         <v>62</v>
       </c>
       <c r="J69" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K69" t="s">
         <v>22</v>
       </c>
       <c r="L69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
       <c r="H70" t="s">
         <v>33</v>
       </c>
@@ -3331,68 +3352,68 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I71" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
       <c r="F72" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G72" t="s">
         <v>49</v>
       </c>
       <c r="J72" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K72" t="s">
         <v>22</v>
       </c>
       <c r="L72" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="A73" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2" t="s">
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>134</v>
+      <c r="G73" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="H73" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I73" t="s">
         <v>52</v>
       </c>
       <c r="J73" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K73" t="s">
         <v>22</v>
@@ -3402,13 +3423,13 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
       <c r="H74" t="s">
         <v>33</v>
       </c>
@@ -3417,86 +3438,86 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
       <c r="H75" t="s">
+        <v>154</v>
+      </c>
+      <c r="I75" t="s">
         <v>77</v>
       </c>
-      <c r="I75" t="s">
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" t="s">
+      <c r="I76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" t="s">
         <v>79</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I77" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" t="s">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I77" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>137</v>
+      <c r="G78" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="H78" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I78" t="s">
         <v>52</v>
       </c>
       <c r="J78" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K78" t="s">
         <v>22</v>
       </c>
       <c r="L78" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
       <c r="H79" t="s">
         <v>33</v>
       </c>
@@ -3505,86 +3526,86 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
       <c r="H80" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="I80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
       <c r="H81" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I81">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
       <c r="H82" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I82" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>139</v>
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="H83" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I83" t="s">
         <v>56</v>
       </c>
       <c r="J83" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K83" t="s">
         <v>22</v>
       </c>
       <c r="L83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="2"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="3"/>
       <c r="H84" t="s">
         <v>33</v>
       </c>
@@ -3593,101 +3614,101 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="2"/>
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="3"/>
       <c r="H85" t="s">
+        <v>154</v>
+      </c>
+      <c r="I85" t="s">
         <v>77</v>
       </c>
-      <c r="I85" t="s">
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="3"/>
+      <c r="H86" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="2"/>
-      <c r="H86" t="s">
+      <c r="I86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="3"/>
+      <c r="H87" t="s">
         <v>79</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I87" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="2"/>
-      <c r="H87" t="s">
-        <v>81</v>
-      </c>
-      <c r="I87" t="s">
-        <v>82</v>
-      </c>
-    </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="2"/>
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="3"/>
       <c r="H88" t="s">
+        <v>138</v>
+      </c>
+      <c r="I88" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G89" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I88" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="H89" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I89" t="s">
         <v>56</v>
       </c>
       <c r="J89" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K89" t="s">
         <v>22</v>
       </c>
       <c r="L89" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
       <c r="H90" t="s">
         <v>33</v>
       </c>
@@ -3696,101 +3717,101 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
       <c r="H91" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="I91" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" t="s">
+        <v>85</v>
+      </c>
+      <c r="I92">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" t="s">
+        <v>79</v>
+      </c>
+      <c r="I93" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" t="s">
+        <v>138</v>
+      </c>
+      <c r="I94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" t="s">
-        <v>87</v>
-      </c>
-      <c r="I92">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" t="s">
-        <v>81</v>
-      </c>
-      <c r="I93" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" t="s">
-        <v>141</v>
-      </c>
-      <c r="I94" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>146</v>
+      <c r="G95" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="H95" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I95" t="s">
         <v>60</v>
       </c>
       <c r="J95" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K95" t="s">
         <v>22</v>
       </c>
       <c r="L95" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
       <c r="H96" t="s">
         <v>33</v>
       </c>
@@ -3799,56 +3820,56 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
       <c r="H97" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I97" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>148</v>
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="H98" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I98" t="s">
         <v>62</v>
       </c>
       <c r="J98" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K98" t="s">
         <v>22</v>
       </c>
       <c r="L98" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
       <c r="H99" t="s">
         <v>33</v>
       </c>
@@ -3857,71 +3878,71 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
       <c r="H100" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I100" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
       <c r="H101" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I101" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>150</v>
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="H102" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I102" t="s">
         <v>62</v>
       </c>
       <c r="J102" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K102" t="s">
         <v>22</v>
       </c>
       <c r="L102" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
       <c r="H103" t="s">
         <v>33</v>
       </c>
@@ -3930,66 +3951,69 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
       <c r="H104" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I104" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
       <c r="H105" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I105" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A49:A72"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="A73:A105"/>
-    <mergeCell ref="A2:A35"/>
-    <mergeCell ref="E73:E105"/>
-    <mergeCell ref="C2:C35"/>
-    <mergeCell ref="C49:C72"/>
-    <mergeCell ref="A36:A48"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="D73:D105"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="D2:D35"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="F83:F88"/>
-    <mergeCell ref="E49:E72"/>
-    <mergeCell ref="F89:F94"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="E2:E35"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="G59:G63"/>
+    <mergeCell ref="G73:G77"/>
+    <mergeCell ref="C36:C48"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="E36:E48"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="G64:G68"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="C73:C105"/>
+    <mergeCell ref="D49:D72"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="G78:G82"/>
+    <mergeCell ref="F102:F105"/>
+    <mergeCell ref="F78:F82"/>
+    <mergeCell ref="G89:G94"/>
+    <mergeCell ref="G95:G97"/>
+    <mergeCell ref="G102:G105"/>
     <mergeCell ref="F98:F101"/>
     <mergeCell ref="G2:G6"/>
     <mergeCell ref="G12:G14"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F40:F47"/>
+    <mergeCell ref="F73:F77"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="G40:G43"/>
     <mergeCell ref="B49:B72"/>
     <mergeCell ref="G83:G88"/>
     <mergeCell ref="B2:B35"/>
@@ -4003,28 +4027,25 @@
     <mergeCell ref="G54:G58"/>
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="F36:F39"/>
-    <mergeCell ref="F40:F47"/>
-    <mergeCell ref="F73:F77"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="C73:C105"/>
-    <mergeCell ref="D49:D72"/>
-    <mergeCell ref="G49:G53"/>
-    <mergeCell ref="G78:G82"/>
-    <mergeCell ref="F102:F105"/>
-    <mergeCell ref="F78:F82"/>
-    <mergeCell ref="G89:G94"/>
-    <mergeCell ref="G95:G97"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="G25:G29"/>
-    <mergeCell ref="G59:G63"/>
-    <mergeCell ref="G73:G77"/>
-    <mergeCell ref="C36:C48"/>
-    <mergeCell ref="F54:F58"/>
-    <mergeCell ref="E36:E48"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="G64:G68"/>
-    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="F89:F94"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="E2:E35"/>
+    <mergeCell ref="D2:D35"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="F83:F88"/>
+    <mergeCell ref="E49:E72"/>
+    <mergeCell ref="A49:A72"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="A73:A105"/>
+    <mergeCell ref="A2:A35"/>
+    <mergeCell ref="E73:E105"/>
+    <mergeCell ref="C2:C35"/>
+    <mergeCell ref="C49:C72"/>
+    <mergeCell ref="A36:A48"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="D73:D105"/>
+    <mergeCell ref="F15:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4244,16 +4265,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
